--- a/files/unprocessed/xlsx_id_name.xlsx
+++ b/files/unprocessed/xlsx_id_name.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XTACY SOLUTIONS LTD\Desktop\NODE JS\read_xlsx\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XTACY SOLUTIONS LTD\Desktop\NODE JS\MINISTRY_XLSX\files\unprocessed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849DD9C-4DCE-4FA4-9B0C-16F0E4CC2556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED4E1E9-FA67-4D32-8761-FBB9D69FD824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>CLAIR</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -366,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,8 +396,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -395,8 +410,11 @@
       <c r="C2">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -406,8 +424,11 @@
       <c r="C3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -417,8 +438,11 @@
       <c r="C4">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -428,8 +452,11 @@
       <c r="C5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -439,8 +466,11 @@
       <c r="C6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -449,6 +479,65 @@
       </c>
       <c r="C7">
         <v>34343</v>
+      </c>
+      <c r="D7">
+        <v>34343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
